--- a/Resources/Unit 06-02 Excel_blank.xlsx
+++ b/Resources/Unit 06-02 Excel_blank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Job_Trciks &amp; Strategies/My Folder/Campus_Interview/Univ of Alabama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Mutasim-Personal-Course-2/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C1F1C9-AEA6-EC43-9440-D19FAD149DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA83C7-4E89-E143-8DFE-13941D33FC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
   </bookViews>
@@ -178,48 +178,6 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TRUE=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Area to the left</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FLASE=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Height of the curve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Excel Syntax</t>
     </r>
     <r>
@@ -231,6 +189,48 @@
         <scheme val="minor"/>
       </rPr>
       <t>: NORM.DIST(x, mean, sd, TRUE/FALSE)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TRUE=1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Area to the left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FLASE=0: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Height of the curve</t>
     </r>
   </si>
 </sst>
@@ -687,7 +687,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,17 +714,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/Resources/Unit 06-02 Excel_blank.xlsx
+++ b/Resources/Unit 06-02 Excel_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Mutasim-Personal-Course-2/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA83C7-4E89-E143-8DFE-13941D33FC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD6523-940E-D843-85A6-BC1891C29E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>mean</t>
   </si>
@@ -232,6 +232,9 @@
       </rPr>
       <t>Height of the curve</t>
     </r>
+  </si>
+  <si>
+    <t>p1</t>
   </si>
 </sst>
 </file>
@@ -684,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72117CB1-D78B-4E38-9553-39E7696DCF28}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,6 +801,11 @@
       </c>
       <c r="B26" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Unit 06-02 Excel_blank.xlsx
+++ b/Resources/Unit 06-02 Excel_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Mutasim-Personal-Course-2/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD6523-940E-D843-85A6-BC1891C29E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCDB8D-1C3D-C943-BE89-BFD15D0D197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>mean</t>
   </si>
@@ -236,12 +236,21 @@
   <si>
     <t>p1</t>
   </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p2-p1</t>
+  </si>
+  <si>
+    <t>1-p1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +302,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -348,10 +362,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -690,7 +704,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,22 +730,22 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -760,6 +774,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -771,6 +788,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>4</v>
@@ -785,6 +807,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,6 +818,11 @@
       </c>
       <c r="B24" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BE5279-6700-2646-8058-88C8A3DFB506}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,20 +893,22 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -884,7 +916,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -900,6 +934,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,12 +947,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A97AA0-6767-45E3-A57F-799C20ADDA8D}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,6 +1081,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,6 +1094,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
@@ -1053,7 +1108,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1069,6 +1126,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,12 +1139,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
